--- a/teste.xlsx
+++ b/teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\PycharmProjects\pythonProject\comercial\similar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\PycharmProjects\pythonProject\sinapsebiotecnologia.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129BEFEE-44D9-40AE-8BBE-69EAFEF18517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB6AA84-1AD3-4693-B78A-7A3EC513B9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,10 +40,10 @@
     <t>Z0FG</t>
   </si>
   <si>
-    <t>ORIGINAL</t>
+    <t>Sinapse</t>
   </si>
   <si>
-    <t>SIMILAR</t>
+    <t>Concorrente</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\PycharmProjects\pythonProject\sinapsebiotecnologia.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB6AA84-1AD3-4693-B78A-7A3EC513B9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D89E9-A624-4EB0-975C-841F1CE68D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>S0AB</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>Concorrente</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Sinapse antigenoma biodegradavel</t>
+  </si>
+  <si>
+    <t>sinape calcio desafiador</t>
+  </si>
+  <si>
+    <t>sinapse forro gordo</t>
+  </si>
+  <si>
+    <t>zymo anti-bio</t>
+  </si>
+  <si>
+    <t>zymo calcium chaleng</t>
+  </si>
+  <si>
+    <t>zymo gordo forro</t>
   </si>
 </sst>
 </file>
@@ -884,47 +905,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\PycharmProjects\pythonProject\sinapsebiotecnologia.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D89E9-A624-4EB0-975C-841F1CE68D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE55656-54F7-48DF-9515-DDDBF221EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>S0AB</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>zymo gordo forro</t>
+  </si>
+  <si>
+    <t>Descricao2</t>
   </si>
 </sst>
 </file>
@@ -908,14 +911,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
